--- a/file.xlsx
+++ b/file.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,132 +438,66 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>job</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>job_type</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45287</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>wake up early 6 Am</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>shopping</t>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>see my crush</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>personal</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45287</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="C3" t="b">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>speak with her</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45287</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45287</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>xcvsav</t>
-        </is>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45287</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sv</t>
-        </is>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45272</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>work</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>personal</t>
         </is>
       </c>
     </row>
